--- a/old.xlsx
+++ b/old.xlsx
@@ -4390,9 +4390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A901" sqref="A901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/old.xlsx
+++ b/old.xlsx
@@ -4391,8 +4391,8 @@
   <dimension ref="A1:K950"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A901" sqref="A901"/>
+      <pane ySplit="1" topLeftCell="A768" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A780" sqref="A780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/old.xlsx
+++ b/old.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1267">
   <si>
     <t>Обозначение</t>
   </si>
@@ -2577,10 +2577,6 @@
     <t>HighSpeedWanInterfacecardwith16RS232asyncports(HWIC-16A)</t>
   </si>
   <si>
-    <t>VZ-C123
-20201474</t>
-  </si>
-  <si>
     <t>7600-ES20-10G3C</t>
   </si>
   <si>
@@ -3818,6 +3814,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>VZ-C123 20201474</t>
+  </si>
+  <si>
+    <t>December 12, 2018</t>
   </si>
 </sst>
 </file>
@@ -4391,8 +4393,8 @@
   <dimension ref="A1:K950"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A768" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A780" sqref="A780"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,34 +4413,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>953</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>959</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J1" s="25" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>1264</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4452,45 +4454,45 @@
         <v>105</v>
       </c>
       <c r="E2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F2" t="s">
         <v>1006</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1007</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1008</v>
       </c>
-      <c r="H2" t="s">
-        <v>1009</v>
-      </c>
       <c r="I2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I3" t="s">
         <v>954</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I3" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,19 +4506,19 @@
         <v>112</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>1009</v>
-      </c>
       <c r="I4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4528,19 +4530,19 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>1009</v>
-      </c>
       <c r="I5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4551,22 +4553,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>1009</v>
-      </c>
       <c r="I6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4577,22 +4579,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>1009</v>
-      </c>
       <c r="I7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4603,65 +4605,65 @@
         <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F8" t="s">
         <v>1010</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1011</v>
       </c>
-      <c r="G8" t="s">
-        <v>1012</v>
-      </c>
       <c r="H8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>1010</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>1012</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F10" t="s">
         <v>1013</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>1014</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>1015</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4673,7 +4675,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4684,16 +4686,16 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F12" t="s">
         <v>1006</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1007</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>1008</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4704,16 +4706,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>1008</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4732,34 +4734,34 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F16" t="s">
         <v>1017</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>1018</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>1019</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4770,42 +4772,42 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F17" t="s">
         <v>1021</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>1022</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>1023</v>
       </c>
-      <c r="H17" t="s">
-        <v>1024</v>
-      </c>
       <c r="I17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F18" t="s">
         <v>1025</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1026</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>1027</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4827,16 +4829,16 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F20" t="s">
         <v>1029</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>1030</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>1031</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4850,16 +4852,16 @@
         <v>521</v>
       </c>
       <c r="E21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F21" t="s">
         <v>1021</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>1022</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>1023</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4873,16 +4875,16 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F22" t="s">
         <v>1033</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>1034</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>1035</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4894,16 +4896,16 @@
       </c>
       <c r="C23" s="12"/>
       <c r="E23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F23" t="s">
         <v>1033</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4915,39 +4917,39 @@
       </c>
       <c r="C24" s="12"/>
       <c r="E24" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="G24" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="G25" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="H25" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4961,16 +4963,16 @@
         <v>481</v>
       </c>
       <c r="E26" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="G26" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="H26" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4995,10 +4997,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5009,10 +5011,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5026,16 +5028,16 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F30" t="s">
         <v>1037</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>1038</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>1039</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5049,16 +5051,16 @@
         <v>37</v>
       </c>
       <c r="E31" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="G31" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="H31" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5069,10 +5071,10 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5083,10 +5085,10 @@
         <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5097,31 +5099,31 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F35" t="s">
         <v>1041</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>1042</v>
       </c>
-      <c r="G35" t="s">
-        <v>1043</v>
-      </c>
       <c r="H35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5135,16 +5137,16 @@
         <v>46</v>
       </c>
       <c r="E36" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>1041</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="G36" s="19" t="s">
         <v>1042</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>1043</v>
-      </c>
       <c r="H36" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5155,34 +5157,34 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B38" s="2">
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F38" t="s">
         <v>1044</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>1045</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>1046</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5193,10 +5195,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5207,10 +5209,10 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,10 +5223,10 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5235,30 +5237,30 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B43" s="2">
         <v>13</v>
       </c>
       <c r="E43" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F43" t="s">
         <v>1044</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>1045</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>1046</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5272,16 +5274,16 @@
         <v>183</v>
       </c>
       <c r="E44" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>1044</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="G44" s="19" t="s">
         <v>1045</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="H44" s="19" t="s">
         <v>1046</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5292,10 +5294,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5306,10 +5308,10 @@
         <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5320,10 +5322,10 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5334,10 +5336,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,10 +5350,10 @@
         <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5365,16 +5367,16 @@
         <v>23</v>
       </c>
       <c r="E50" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F50" t="s">
         <v>1048</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>1049</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>1050</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5388,16 +5390,16 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F51" t="s">
         <v>1037</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>1038</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>1039</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5409,16 +5411,16 @@
       </c>
       <c r="C52" s="17"/>
       <c r="E52" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="G52" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="H52" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5432,16 +5434,16 @@
         <v>354</v>
       </c>
       <c r="E53" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F53" t="s">
         <v>1052</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>1053</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>1054</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,19 +5455,19 @@
       </c>
       <c r="C54" s="17"/>
       <c r="E54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F54" t="s">
         <v>1037</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>1038</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>1039</v>
       </c>
-      <c r="H54" t="s">
-        <v>1040</v>
-      </c>
       <c r="I54" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5476,19 +5478,19 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F55" t="s">
         <v>1056</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>1057</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>1058</v>
       </c>
-      <c r="H55" t="s">
-        <v>1059</v>
-      </c>
       <c r="I55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5499,16 +5501,16 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F56" t="s">
         <v>1037</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>1038</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>1039</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5519,30 +5521,30 @@
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B58" s="2">
         <v>6</v>
       </c>
       <c r="E58" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="G58" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="H58" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5553,21 +5555,21 @@
         <v>10</v>
       </c>
       <c r="E59" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="G59" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="H59" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B60" s="2">
         <v>8</v>
@@ -5576,16 +5578,16 @@
         <v>46</v>
       </c>
       <c r="E60" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F60" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="G60" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="H60" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5599,16 +5601,16 @@
         <v>46</v>
       </c>
       <c r="E61" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="G61" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="H61" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5619,41 +5621,41 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I62" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
       </c>
       <c r="E63" t="s">
+        <v>960</v>
+      </c>
+      <c r="F63" t="s">
         <v>961</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
+        <v>961</v>
+      </c>
+      <c r="H63" t="s">
         <v>962</v>
-      </c>
-      <c r="G63" t="s">
-        <v>962</v>
-      </c>
-      <c r="H63" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,13 +5692,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5707,7 +5709,7 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5718,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5729,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5740,7 +5742,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5751,18 +5753,21 @@
         <v>6</v>
       </c>
       <c r="E74" t="s">
+        <v>964</v>
+      </c>
+      <c r="F74" t="s">
         <v>965</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" s="19" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H74" t="s">
         <v>966</v>
-      </c>
-      <c r="H74" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B75" s="2">
         <v>7</v>
@@ -5787,33 +5792,33 @@
         <v>93</v>
       </c>
       <c r="E77" t="s">
+        <v>967</v>
+      </c>
+      <c r="F77" t="s">
         <v>968</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>969</v>
-      </c>
-      <c r="H77" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B78" s="2">
         <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E78" t="s">
+        <v>970</v>
+      </c>
+      <c r="F78" t="s">
         <v>971</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>972</v>
-      </c>
-      <c r="H78" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5824,18 +5829,18 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
+        <v>970</v>
+      </c>
+      <c r="F79" t="s">
         <v>971</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" s="19" t="s">
         <v>972</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B80" s="2">
         <v>5</v>
@@ -5843,7 +5848,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B81" s="2">
         <v>6</v>
@@ -5860,30 +5865,30 @@
         <v>240</v>
       </c>
       <c r="E82" t="s">
+        <v>967</v>
+      </c>
+      <c r="F82" t="s">
         <v>968</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>969</v>
-      </c>
-      <c r="H82" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
       </c>
       <c r="E83" t="s">
+        <v>970</v>
+      </c>
+      <c r="F83" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="H83" s="19" t="s">
         <v>972</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5897,13 +5902,13 @@
         <v>50</v>
       </c>
       <c r="E84" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="F84" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="H84" s="19" t="s">
         <v>972</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5917,13 +5922,13 @@
         <v>51</v>
       </c>
       <c r="E85" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="F85" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="H85" s="19" t="s">
         <v>972</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5944,19 +5949,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B88" s="2">
         <v>4</v>
       </c>
       <c r="E88" t="s">
+        <v>964</v>
+      </c>
+      <c r="F88" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="H88" s="19" t="s">
         <v>966</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5970,13 +5975,13 @@
         <v>51</v>
       </c>
       <c r="E89" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="F89" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="H89" s="19" t="s">
         <v>966</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5987,7 +5992,7 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5998,29 +6003,29 @@
         <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F92" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H92" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B93" s="2">
         <v>18</v>
@@ -6028,7 +6033,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -6036,7 +6041,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B95" s="2">
         <v>13</v>
@@ -6052,7 +6057,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B97" s="2">
         <v>36</v>
@@ -6060,7 +6065,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B98" s="2">
         <v>16</v>
@@ -6074,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,12 +6090,12 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B101" s="2">
         <v>2</v>
@@ -6118,13 +6123,13 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F103" t="s">
         <v>977</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
         <v>978</v>
-      </c>
-      <c r="H103" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6146,10 +6151,10 @@
         <v>360</v>
       </c>
       <c r="E105" t="s">
+        <v>979</v>
+      </c>
+      <c r="H105" t="s">
         <v>980</v>
-      </c>
-      <c r="H105" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6163,33 +6168,33 @@
         <v>360</v>
       </c>
       <c r="E106" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F106" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H106" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6203,13 +6208,13 @@
         <v>360</v>
       </c>
       <c r="E108" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F108" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H108" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6228,16 +6233,16 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
+        <v>988</v>
+      </c>
+      <c r="E110" t="s">
+        <v>991</v>
+      </c>
+      <c r="F110" t="s">
+        <v>990</v>
+      </c>
+      <c r="H110" t="s">
         <v>989</v>
-      </c>
-      <c r="E110" t="s">
-        <v>992</v>
-      </c>
-      <c r="F110" t="s">
-        <v>991</v>
-      </c>
-      <c r="H110" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6251,33 +6256,33 @@
         <v>324</v>
       </c>
       <c r="E111" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F111" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H111" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B112" s="2">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E112" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F112" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H112" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6291,13 +6296,13 @@
         <v>369</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6349,16 +6354,16 @@
         <v>16</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E118" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F118" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H118" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6369,16 +6374,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6389,13 +6394,13 @@
         <v>2</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6406,13 +6411,13 @@
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F121" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H121" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6423,13 +6428,13 @@
         <v>1</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6440,16 +6445,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E123" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F123" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H123" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6471,16 +6476,16 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F125" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G125" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H125" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6505,16 +6510,16 @@
         <v>667</v>
       </c>
       <c r="E127" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F127" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G127" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H127" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6525,16 +6530,16 @@
         <v>1</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G128" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6556,16 +6561,16 @@
         <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F130" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H130" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6601,16 +6606,16 @@
         <v>146</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H133" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -6624,16 +6629,16 @@
         <v>129</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F134" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H134" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -6658,16 +6663,16 @@
         <v>289</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6681,16 +6686,16 @@
         <v>289</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6712,16 +6717,16 @@
         <v>286</v>
       </c>
       <c r="E139" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F139" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G139" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H139" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -6732,16 +6737,16 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F140" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G140" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H140" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6752,16 +6757,16 @@
         <v>14</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G141" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -6772,16 +6777,16 @@
         <v>11</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G142" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -6795,16 +6800,16 @@
         <v>799</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G143" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6815,16 +6820,16 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F144" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G144" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H144" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6835,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6849,16 +6854,16 @@
         <v>286</v>
       </c>
       <c r="E146" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F146" t="s">
         <v>1060</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>1061</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>1062</v>
-      </c>
-      <c r="H146" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6888,10 +6893,10 @@
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I149" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6916,10 +6921,10 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6984,7 +6989,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B158" s="2">
         <v>4</v>
@@ -7022,10 +7027,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I162" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7036,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I163" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7074,16 +7079,16 @@
         <v>8</v>
       </c>
       <c r="E167" t="s">
+        <v>967</v>
+      </c>
+      <c r="F167" t="s">
         <v>968</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H167" t="s">
         <v>969</v>
-      </c>
-      <c r="G167" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H167" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7118,16 +7123,16 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
+        <v>967</v>
+      </c>
+      <c r="F171" t="s">
         <v>968</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H171" t="s">
         <v>969</v>
-      </c>
-      <c r="G171" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H171" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7149,16 +7154,16 @@
         <v>100</v>
       </c>
       <c r="E173" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="F173" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="F173" s="19" t="s">
+      <c r="G173" s="19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H173" s="19" t="s">
         <v>969</v>
-      </c>
-      <c r="G173" s="19" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H173" s="19" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7204,7 +7209,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B178" s="2">
         <v>9</v>
@@ -7234,16 +7239,16 @@
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F181" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G181" t="s">
         <v>1065</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>1066</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7257,19 +7262,19 @@
         <v>190</v>
       </c>
       <c r="E182" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F182" s="19" t="s">
         <v>1068</v>
       </c>
-      <c r="F182" s="19" t="s">
+      <c r="G182" s="19" t="s">
         <v>1069</v>
       </c>
-      <c r="G182" s="19" t="s">
+      <c r="H182" s="19" t="s">
         <v>1070</v>
       </c>
-      <c r="H182" s="19" t="s">
+      <c r="I182" t="s">
         <v>1071</v>
-      </c>
-      <c r="I182" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7280,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7294,19 +7299,19 @@
         <v>380</v>
       </c>
       <c r="E184" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F184" t="s">
         <v>1073</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>1074</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>1075</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" s="19" t="s">
         <v>1076</v>
-      </c>
-      <c r="I184" s="19" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7317,22 +7322,22 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G185" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H185" s="19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I185" s="19" t="s">
         <v>1078</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G185" s="19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H185" s="19" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I185" s="19" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7346,19 +7351,19 @@
         <v>713</v>
       </c>
       <c r="E186" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F186" t="s">
         <v>1073</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>1074</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="H186" s="19" t="s">
-        <v>1076</v>
-      </c>
       <c r="I186" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7372,16 +7377,16 @@
         <v>444</v>
       </c>
       <c r="E187" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F187" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="F187" s="19" t="s">
+      <c r="G187" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="G187" s="19" t="s">
+      <c r="H187" s="19" t="s">
         <v>1075</v>
-      </c>
-      <c r="H187" s="19" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7392,19 +7397,19 @@
         <v>4</v>
       </c>
       <c r="D188" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E188" t="s">
         <v>1081</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>1082</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>1083</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>1084</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7459,16 +7464,16 @@
         <v>4</v>
       </c>
       <c r="E193" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F193" t="s">
         <v>1086</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>1087</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>1088</v>
-      </c>
-      <c r="H193" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7479,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7490,16 +7495,16 @@
         <v>4</v>
       </c>
       <c r="E195" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F195" t="s">
         <v>1086</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
         <v>1087</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>1088</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -7510,39 +7515,39 @@
         <v>4</v>
       </c>
       <c r="E196" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F196" s="19" t="s">
         <v>1086</v>
       </c>
-      <c r="F196" s="19" t="s">
+      <c r="G196" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G196" s="19" t="s">
+      <c r="H196" s="19" t="s">
         <v>1088</v>
-      </c>
-      <c r="H196" s="19" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B197" s="2">
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F197" t="s">
         <v>1090</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>1091</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>1092</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7556,16 +7561,16 @@
         <v>406</v>
       </c>
       <c r="E198" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F198" s="19" t="s">
         <v>1090</v>
       </c>
-      <c r="F198" s="19" t="s">
+      <c r="G198" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="G198" s="19" t="s">
+      <c r="H198" s="19" t="s">
         <v>1092</v>
-      </c>
-      <c r="H198" s="19" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7579,16 +7584,16 @@
         <v>68</v>
       </c>
       <c r="E199" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F199" t="s">
         <v>1021</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>1022</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>1023</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7602,16 +7607,16 @@
         <v>68</v>
       </c>
       <c r="E200" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F200" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F200" s="19" t="s">
+      <c r="G200" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G200" s="19" t="s">
+      <c r="H200" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H200" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,19 +7627,19 @@
         <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E201" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F201" t="s">
+        <v>961</v>
+      </c>
+      <c r="G201" t="s">
         <v>1094</v>
       </c>
-      <c r="F201" t="s">
-        <v>962</v>
-      </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>1095</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7653,12 +7658,12 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B204" s="2">
         <v>5</v>
@@ -7666,7 +7671,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B205" s="2">
         <v>3</v>
@@ -7674,24 +7679,24 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B206" s="2">
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B207" s="2">
         <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7702,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -7716,16 +7721,16 @@
         <v>464</v>
       </c>
       <c r="E209" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F209" t="s">
         <v>1082</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>1083</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>1084</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7739,16 +7744,16 @@
         <v>464</v>
       </c>
       <c r="E210" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F210" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="F210" s="19" t="s">
+      <c r="G210" s="19" t="s">
         <v>1083</v>
       </c>
-      <c r="G210" s="19" t="s">
+      <c r="H210" s="19" t="s">
         <v>1084</v>
-      </c>
-      <c r="H210" s="19" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7762,16 +7767,16 @@
         <v>455</v>
       </c>
       <c r="E211" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F211" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="F211" s="19" t="s">
+      <c r="G211" s="19" t="s">
         <v>1083</v>
       </c>
-      <c r="G211" s="19" t="s">
+      <c r="H211" s="19" t="s">
         <v>1084</v>
-      </c>
-      <c r="H211" s="19" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7785,16 +7790,16 @@
         <v>514</v>
       </c>
       <c r="E212" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F212" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G212" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H212" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7808,16 +7813,16 @@
         <v>476</v>
       </c>
       <c r="E213" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F213" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G213" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H213" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7831,16 +7836,16 @@
         <v>330</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G214" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7876,16 +7881,16 @@
         <v>302</v>
       </c>
       <c r="E217" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F217" t="s">
         <v>1073</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>1074</v>
       </c>
-      <c r="G217" t="s">
+      <c r="H217" t="s">
         <v>1075</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7899,16 +7904,16 @@
         <v>467</v>
       </c>
       <c r="E218" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F218" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="F218" s="19" t="s">
+      <c r="G218" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="G218" s="19" t="s">
+      <c r="H218" s="19" t="s">
         <v>1075</v>
-      </c>
-      <c r="H218" s="19" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7922,16 +7927,16 @@
         <v>380</v>
       </c>
       <c r="E219" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F219" t="s">
         <v>1073</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>1074</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>1075</v>
-      </c>
-      <c r="H219" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7945,19 +7950,19 @@
         <v>658</v>
       </c>
       <c r="E220" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F220" t="s">
         <v>1109</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>1110</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" s="19" t="s">
         <v>1111</v>
       </c>
-      <c r="H220" s="19" t="s">
+      <c r="I220" t="s">
         <v>1112</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -7971,16 +7976,16 @@
         <v>389</v>
       </c>
       <c r="E221" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F221" t="s">
         <v>1073</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>1074</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>1075</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7994,16 +7999,16 @@
         <v>713</v>
       </c>
       <c r="E222" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F222" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="F222" s="19" t="s">
+      <c r="G222" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="G222" s="19" t="s">
+      <c r="H222" s="19" t="s">
         <v>1075</v>
-      </c>
-      <c r="H222" s="19" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8017,16 +8022,16 @@
         <v>308</v>
       </c>
       <c r="E223" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F223" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="F223" s="19" t="s">
+      <c r="G223" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="G223" s="19" t="s">
+      <c r="H223" s="19" t="s">
         <v>1075</v>
-      </c>
-      <c r="H223" s="19" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8040,16 +8045,16 @@
         <v>381</v>
       </c>
       <c r="E224" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F224" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G224" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H224" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8063,16 +8068,16 @@
         <v>404</v>
       </c>
       <c r="E225" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F225" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G225" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H225" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -8086,16 +8091,16 @@
         <v>647</v>
       </c>
       <c r="E226" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G226" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H226" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -8109,16 +8114,16 @@
         <v>89</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G227" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H227" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -8129,16 +8134,16 @@
         <v>159</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G228" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H228" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -8149,16 +8154,16 @@
         <v>2</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G229" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H229" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,16 +8177,16 @@
         <v>463</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G230" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H230" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -8192,16 +8197,16 @@
         <v>1</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F231" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G231" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H231" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -8215,16 +8220,16 @@
         <v>451</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F232" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G232" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H232" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -8238,16 +8243,16 @@
         <v>306</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G233" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H233" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -8258,16 +8263,16 @@
         <v>1</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F234" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G234" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H234" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -8278,16 +8283,16 @@
         <v>17</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F235" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G235" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H235" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -8298,7 +8303,7 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -8380,16 +8385,16 @@
         <v>685</v>
       </c>
       <c r="E244" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F244" t="s">
         <v>1082</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>1083</v>
       </c>
-      <c r="G244" t="s">
+      <c r="H244" t="s">
         <v>1084</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8400,19 +8405,19 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E245" s="19" t="s">
         <v>1081</v>
       </c>
-      <c r="E245" s="19" t="s">
+      <c r="F245" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="F245" s="19" t="s">
+      <c r="G245" s="19" t="s">
         <v>1083</v>
       </c>
-      <c r="G245" s="19" t="s">
+      <c r="H245" s="19" t="s">
         <v>1084</v>
-      </c>
-      <c r="H245" s="19" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8423,19 +8428,19 @@
         <v>1</v>
       </c>
       <c r="E246" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F246" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="F246" s="19" t="s">
+      <c r="G246" s="19" t="s">
         <v>1083</v>
       </c>
-      <c r="G246" s="19" t="s">
+      <c r="H246" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="H246" s="19" t="s">
-        <v>1085</v>
-      </c>
       <c r="I246" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8449,16 +8454,16 @@
         <v>307</v>
       </c>
       <c r="E247" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F247" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G247" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H247" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8472,16 +8477,16 @@
         <v>398</v>
       </c>
       <c r="E248" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F248" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G248" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -8495,16 +8500,16 @@
         <v>80</v>
       </c>
       <c r="E249" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G249" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8518,16 +8523,16 @@
         <v>83</v>
       </c>
       <c r="E250" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F250" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G250" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -8541,16 +8546,16 @@
         <v>682</v>
       </c>
       <c r="E251" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F251" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G251" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H251" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8561,19 +8566,19 @@
         <v>13</v>
       </c>
       <c r="E252" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F252" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G252" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H252" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I252" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -8647,16 +8652,16 @@
         <v>167</v>
       </c>
       <c r="E259" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F259" t="s">
         <v>1021</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>1022</v>
       </c>
-      <c r="G259" t="s">
+      <c r="H259" t="s">
         <v>1023</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8670,16 +8675,16 @@
         <v>64</v>
       </c>
       <c r="E260" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F260" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F260" s="19" t="s">
+      <c r="G260" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G260" s="19" t="s">
+      <c r="H260" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H260" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8693,16 +8698,16 @@
         <v>64</v>
       </c>
       <c r="E261" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F261" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F261" s="19" t="s">
+      <c r="G261" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G261" s="19" t="s">
+      <c r="H261" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H261" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -8713,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -8724,16 +8729,16 @@
         <v>1</v>
       </c>
       <c r="E263" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F263" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F263" s="19" t="s">
+      <c r="G263" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G263" s="19" t="s">
+      <c r="H263" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H263" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8747,16 +8752,16 @@
         <v>168</v>
       </c>
       <c r="E264" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F264" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F264" s="19" t="s">
+      <c r="G264" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G264" s="19" t="s">
+      <c r="H264" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H264" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -8767,27 +8772,27 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B266" s="2">
         <v>1</v>
       </c>
       <c r="E266" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F266" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F266" s="19" t="s">
+      <c r="G266" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G266" s="19" t="s">
+      <c r="H266" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H266" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -8801,16 +8806,16 @@
         <v>479</v>
       </c>
       <c r="E267" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F267" t="s">
         <v>1033</v>
       </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
         <v>1034</v>
       </c>
-      <c r="G267" t="s">
+      <c r="H267" t="s">
         <v>1035</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8824,16 +8829,16 @@
         <v>418</v>
       </c>
       <c r="E268" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F268" t="s">
         <v>1117</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
         <v>1118</v>
       </c>
-      <c r="G268" t="s">
+      <c r="H268" t="s">
         <v>1119</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8847,16 +8852,16 @@
         <v>45</v>
       </c>
       <c r="E269" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F269" t="s">
         <v>1048</v>
       </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
         <v>1049</v>
       </c>
-      <c r="G269" t="s">
+      <c r="H269" t="s">
         <v>1050</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -8867,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8878,7 +8883,7 @@
         <v>6</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -8892,16 +8897,16 @@
         <v>45</v>
       </c>
       <c r="E272" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F272" t="s">
         <v>1056</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
         <v>1057</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="s">
         <v>1058</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -8912,7 +8917,7 @@
         <v>13</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -8923,7 +8928,7 @@
         <v>38</v>
       </c>
       <c r="C274" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8937,16 +8942,16 @@
         <v>1</v>
       </c>
       <c r="E275" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F275" t="s">
         <v>1037</v>
       </c>
-      <c r="F275" t="s">
+      <c r="G275" t="s">
         <v>1038</v>
       </c>
-      <c r="G275" t="s">
+      <c r="H275" t="s">
         <v>1039</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8957,7 +8962,7 @@
         <v>36</v>
       </c>
       <c r="C276" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8968,7 +8973,7 @@
         <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8982,16 +8987,16 @@
         <v>96</v>
       </c>
       <c r="E278" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F278" s="19" t="s">
         <v>1056</v>
       </c>
-      <c r="F278" s="19" t="s">
+      <c r="G278" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="G278" s="19" t="s">
+      <c r="H278" s="19" t="s">
         <v>1058</v>
-      </c>
-      <c r="H278" s="19" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -9002,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -9013,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -9027,16 +9032,16 @@
         <v>96</v>
       </c>
       <c r="E281" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F281" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F281" s="19" t="s">
+      <c r="G281" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G281" s="19" t="s">
+      <c r="H281" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H281" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -9047,7 +9052,7 @@
         <v>43</v>
       </c>
       <c r="C282" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -9058,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -9072,16 +9077,16 @@
         <v>510</v>
       </c>
       <c r="E284" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F284" t="s">
         <v>1121</v>
       </c>
-      <c r="F284" t="s">
+      <c r="G284" t="s">
         <v>1122</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>1123</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -9095,16 +9100,16 @@
         <v>529</v>
       </c>
       <c r="E285" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F285" t="s">
         <v>1125</v>
       </c>
-      <c r="F285" t="s">
+      <c r="G285" t="s">
         <v>1126</v>
       </c>
-      <c r="G285" t="s">
-        <v>1127</v>
-      </c>
       <c r="H285" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -9115,16 +9120,16 @@
         <v>5</v>
       </c>
       <c r="E286" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F286" t="s">
         <v>1128</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>1129</v>
       </c>
-      <c r="G286" t="s">
+      <c r="H286" t="s">
         <v>1130</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -9138,16 +9143,16 @@
         <v>502</v>
       </c>
       <c r="E287" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F287" t="s">
         <v>1125</v>
       </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>1126</v>
       </c>
-      <c r="G287" t="s">
-        <v>1127</v>
-      </c>
       <c r="H287" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -9158,16 +9163,16 @@
         <v>7</v>
       </c>
       <c r="E288" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F288" t="s">
         <v>1128</v>
       </c>
-      <c r="F288" t="s">
+      <c r="G288" t="s">
         <v>1129</v>
       </c>
-      <c r="G288" t="s">
+      <c r="H288" t="s">
         <v>1130</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -9178,16 +9183,16 @@
         <v>1</v>
       </c>
       <c r="E289" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F289" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="F289" s="19" t="s">
+      <c r="G289" s="19" t="s">
         <v>1129</v>
       </c>
-      <c r="G289" s="19" t="s">
+      <c r="H289" s="19" t="s">
         <v>1130</v>
-      </c>
-      <c r="H289" s="19" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -9201,16 +9206,16 @@
         <v>551</v>
       </c>
       <c r="E290" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F290" t="s">
         <v>1132</v>
       </c>
-      <c r="F290" t="s">
+      <c r="G290" t="s">
         <v>1133</v>
       </c>
-      <c r="G290" t="s">
+      <c r="H290" t="s">
         <v>1134</v>
-      </c>
-      <c r="H290" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -9221,16 +9226,16 @@
         <v>5</v>
       </c>
       <c r="E291" s="19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F291" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="F291" s="19" t="s">
+      <c r="G291" s="19" t="s">
         <v>1129</v>
       </c>
-      <c r="G291" s="19" t="s">
+      <c r="H291" s="19" t="s">
         <v>1130</v>
-      </c>
-      <c r="H291" s="19" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -9241,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -9252,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9263,7 +9268,7 @@
         <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -9274,7 +9279,7 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -9285,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -9296,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -9307,7 +9312,7 @@
         <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -9318,7 +9323,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -9329,7 +9334,7 @@
         <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -9340,7 +9345,7 @@
         <v>8</v>
       </c>
       <c r="C301" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -9351,7 +9356,7 @@
         <v>45</v>
       </c>
       <c r="C302" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -9362,7 +9367,7 @@
         <v>59</v>
       </c>
       <c r="C303" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -9373,7 +9378,7 @@
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -9384,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -9395,7 +9400,7 @@
         <v>8</v>
       </c>
       <c r="C306" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -9406,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="C307" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -9417,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -9428,7 +9433,7 @@
         <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -9439,7 +9444,7 @@
         <v>3</v>
       </c>
       <c r="C310" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -9450,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -9483,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -9494,7 +9499,7 @@
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -9505,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="C316" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -9516,7 +9521,7 @@
         <v>5</v>
       </c>
       <c r="C317" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -9527,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -9538,7 +9543,7 @@
         <v>3</v>
       </c>
       <c r="C319" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -9549,7 +9554,7 @@
         <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -9560,7 +9565,7 @@
         <v>45</v>
       </c>
       <c r="C321" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -9571,16 +9576,16 @@
         <v>546</v>
       </c>
       <c r="E322" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F322" t="s">
         <v>1037</v>
       </c>
-      <c r="F322" t="s">
+      <c r="G322" t="s">
         <v>1038</v>
       </c>
-      <c r="G322" t="s">
+      <c r="H322" t="s">
         <v>1039</v>
-      </c>
-      <c r="H322" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -9591,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -9602,21 +9607,21 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B325" s="2">
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I325" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -9627,36 +9632,36 @@
         <v>16</v>
       </c>
       <c r="E326" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F326" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G326" t="s">
         <v>1136</v>
       </c>
-      <c r="G326" t="s">
-        <v>1137</v>
-      </c>
       <c r="H326" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B327" s="2">
         <v>2</v>
       </c>
       <c r="E327" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F327" t="s">
         <v>1138</v>
       </c>
-      <c r="F327" t="s">
+      <c r="G327" t="s">
         <v>1139</v>
       </c>
-      <c r="G327" t="s">
-        <v>1140</v>
-      </c>
       <c r="H327" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -9667,16 +9672,16 @@
         <v>2</v>
       </c>
       <c r="E328" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F328" s="19" t="s">
         <v>1138</v>
       </c>
-      <c r="F328" s="19" t="s">
+      <c r="G328" s="19" t="s">
         <v>1139</v>
       </c>
-      <c r="G328" s="19" t="s">
-        <v>1140</v>
-      </c>
       <c r="H328" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -9695,16 +9700,16 @@
         <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F330" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G330" t="s">
         <v>1136</v>
       </c>
-      <c r="G330" t="s">
-        <v>1137</v>
-      </c>
       <c r="H330" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -9726,16 +9731,16 @@
         <v>119</v>
       </c>
       <c r="E332" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F332" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G332" t="s">
         <v>1141</v>
       </c>
-      <c r="G332" t="s">
+      <c r="H332" t="s">
         <v>1142</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -9754,16 +9759,16 @@
         <v>22</v>
       </c>
       <c r="E334" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F334" t="s">
         <v>1144</v>
       </c>
-      <c r="F334" t="s">
+      <c r="G334" t="s">
         <v>1145</v>
       </c>
-      <c r="G334" t="s">
+      <c r="H334" t="s">
         <v>1146</v>
-      </c>
-      <c r="H334" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -9790,19 +9795,19 @@
         <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E337" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F337" t="s">
         <v>1148</v>
       </c>
-      <c r="F337" t="s">
+      <c r="G337" t="s">
         <v>1149</v>
       </c>
-      <c r="G337" t="s">
+      <c r="H337" t="s">
         <v>1150</v>
-      </c>
-      <c r="H337" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -9813,10 +9818,10 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I338" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -9827,14 +9832,14 @@
         <v>1</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D339" s="19"/>
       <c r="E339" s="19"/>
       <c r="F339" s="19"/>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -9845,14 +9850,14 @@
         <v>1</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D340" s="19"/>
       <c r="E340" s="19"/>
       <c r="F340" s="19"/>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -9863,10 +9868,10 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I341" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -9877,10 +9882,10 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I342" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -9891,10 +9896,10 @@
         <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I343" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -9905,10 +9910,10 @@
         <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I344" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -9919,10 +9924,10 @@
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I345" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -9933,10 +9938,10 @@
         <v>1</v>
       </c>
       <c r="C346" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I346" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -9947,10 +9952,10 @@
         <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I347" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -9961,10 +9966,10 @@
         <v>1</v>
       </c>
       <c r="C348" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I348" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -9975,10 +9980,10 @@
         <v>1</v>
       </c>
       <c r="C349" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I349" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -9989,10 +9994,10 @@
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I350" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -10003,10 +10008,10 @@
         <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I351" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -10017,10 +10022,10 @@
         <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I352" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -10031,10 +10036,10 @@
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I353" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -10045,10 +10050,10 @@
         <v>1</v>
       </c>
       <c r="C354" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I354" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -10059,10 +10064,10 @@
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I355" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -10073,10 +10078,10 @@
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I356" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -10087,10 +10092,10 @@
         <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I357" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -10101,10 +10106,10 @@
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I358" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -10115,10 +10120,10 @@
         <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I359" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -10129,10 +10134,10 @@
         <v>1</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I360" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -10143,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I361" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -10157,10 +10162,10 @@
         <v>1</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I362" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -10171,10 +10176,10 @@
         <v>1</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I363" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -10185,10 +10190,10 @@
         <v>1</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I364" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -10199,10 +10204,10 @@
         <v>1</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I365" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -10213,10 +10218,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I366" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -10227,10 +10232,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I367" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -10246,7 +10251,7 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B369" s="2">
         <v>4</v>
@@ -10260,19 +10265,19 @@
         <v>2</v>
       </c>
       <c r="C370" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E370" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F370" t="s">
         <v>1152</v>
       </c>
-      <c r="F370" t="s">
+      <c r="G370" t="s">
         <v>1153</v>
       </c>
-      <c r="G370" t="s">
+      <c r="H370" t="s">
         <v>1154</v>
-      </c>
-      <c r="H370" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -10283,7 +10288,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -10294,10 +10299,10 @@
         <v>1</v>
       </c>
       <c r="C372" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I372" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -10308,7 +10313,7 @@
         <v>3</v>
       </c>
       <c r="C373" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -10319,7 +10324,7 @@
         <v>4</v>
       </c>
       <c r="C374" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -10330,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="C375" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -10341,7 +10346,7 @@
         <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -10352,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="C377" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -10366,41 +10371,41 @@
         <v>674</v>
       </c>
       <c r="E378" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F378" t="s">
         <v>1156</v>
       </c>
-      <c r="F378" t="s">
+      <c r="G378" t="s">
         <v>1157</v>
       </c>
-      <c r="G378" t="s">
+      <c r="H378" t="s">
         <v>1158</v>
-      </c>
-      <c r="H378" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B379" s="2">
         <v>2</v>
       </c>
       <c r="E379" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F379" t="s">
         <v>1160</v>
       </c>
-      <c r="F379" t="s">
+      <c r="G379" t="s">
         <v>1161</v>
       </c>
-      <c r="G379" t="s">
-        <v>1162</v>
-      </c>
       <c r="H379" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B380" s="2">
         <v>1</v>
@@ -10408,7 +10413,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B381" s="2">
         <v>10</v>
@@ -10416,7 +10421,7 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B382" s="2">
         <v>13</v>
@@ -10424,7 +10429,7 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B383" s="2">
         <v>12</v>
@@ -10432,7 +10437,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B384" s="2">
         <v>63</v>
@@ -10454,7 +10459,7 @@
         <v>5</v>
       </c>
       <c r="C386" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -10465,7 +10470,7 @@
         <v>6</v>
       </c>
       <c r="C387" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -10476,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="C388" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -10487,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="C389" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -10498,7 +10503,7 @@
         <v>2</v>
       </c>
       <c r="C390" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -10523,16 +10528,16 @@
         <v>2</v>
       </c>
       <c r="E392" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F392" t="s">
         <v>1037</v>
       </c>
-      <c r="F392" t="s">
+      <c r="G392" t="s">
         <v>1038</v>
       </c>
-      <c r="G392" t="s">
+      <c r="H392" t="s">
         <v>1039</v>
-      </c>
-      <c r="H392" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -10543,16 +10548,16 @@
         <v>90</v>
       </c>
       <c r="E393" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F393" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="F393" s="19" t="s">
+      <c r="G393" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="G393" s="19" t="s">
+      <c r="H393" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="H393" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -10563,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -10574,7 +10579,7 @@
         <v>7</v>
       </c>
       <c r="C395" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -10585,7 +10590,7 @@
         <v>27</v>
       </c>
       <c r="C396" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -10596,7 +10601,7 @@
         <v>34</v>
       </c>
       <c r="C397" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -10607,7 +10612,7 @@
         <v>25</v>
       </c>
       <c r="C398" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -10618,19 +10623,19 @@
         <v>4</v>
       </c>
       <c r="C399" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E399" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F399" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G399" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H399" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -10641,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -10652,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -10663,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="C402" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -10674,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -10685,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="C404" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -10696,27 +10701,27 @@
         <v>4</v>
       </c>
       <c r="C405" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B406" s="2">
         <v>1</v>
       </c>
       <c r="E406" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F406" t="s">
         <v>1117</v>
       </c>
-      <c r="F406" t="s">
+      <c r="G406" t="s">
         <v>1118</v>
       </c>
-      <c r="G406" t="s">
+      <c r="H406" t="s">
         <v>1119</v>
-      </c>
-      <c r="H406" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -10749,16 +10754,16 @@
         <v>150</v>
       </c>
       <c r="E409" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F409" t="s">
         <v>1163</v>
       </c>
-      <c r="F409" t="s">
+      <c r="G409" t="s">
         <v>1164</v>
       </c>
-      <c r="G409" t="s">
+      <c r="H409" t="s">
         <v>1165</v>
-      </c>
-      <c r="H409" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -10780,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="C411" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -10794,16 +10799,16 @@
         <v>561</v>
       </c>
       <c r="E412" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F412" t="s">
         <v>1163</v>
       </c>
-      <c r="F412" t="s">
+      <c r="G412" s="19" t="s">
         <v>1164</v>
       </c>
-      <c r="G412" s="19" t="s">
+      <c r="H412" s="19" t="s">
         <v>1165</v>
-      </c>
-      <c r="H412" s="19" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -10814,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="C413" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -10828,16 +10833,16 @@
         <v>175</v>
       </c>
       <c r="E414" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F414" t="s">
         <v>1167</v>
       </c>
-      <c r="F414" t="s">
+      <c r="G414" t="s">
         <v>1168</v>
       </c>
-      <c r="G414" t="s">
+      <c r="H414" t="s">
         <v>1169</v>
-      </c>
-      <c r="H414" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -10851,16 +10856,16 @@
         <v>256</v>
       </c>
       <c r="E415" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F415" t="s">
         <v>1171</v>
       </c>
-      <c r="F415" t="s">
+      <c r="G415" t="s">
         <v>1172</v>
       </c>
-      <c r="G415" t="s">
-        <v>1173</v>
-      </c>
       <c r="H415" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -10871,7 +10876,7 @@
         <v>2</v>
       </c>
       <c r="C416" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -10882,53 +10887,53 @@
         <v>1</v>
       </c>
       <c r="C417" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B418" s="2">
         <v>3</v>
       </c>
       <c r="C418" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E418" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F418" t="s">
         <v>1174</v>
       </c>
-      <c r="F418" t="s">
+      <c r="G418" t="s">
         <v>1175</v>
       </c>
-      <c r="G418" t="s">
-        <v>1176</v>
-      </c>
       <c r="H418" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B419" s="2">
         <v>3</v>
       </c>
       <c r="C419" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E419" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F419" s="19" t="s">
         <v>1174</v>
       </c>
-      <c r="F419" s="19" t="s">
+      <c r="G419" s="19" t="s">
         <v>1175</v>
       </c>
-      <c r="G419" s="19" t="s">
-        <v>1176</v>
-      </c>
       <c r="H419" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -10944,13 +10949,13 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B421" s="2">
         <v>2</v>
       </c>
       <c r="C421" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -10961,7 +10966,7 @@
         <v>8</v>
       </c>
       <c r="D422" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -10975,38 +10980,38 @@
         <v>331</v>
       </c>
       <c r="E423" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F423" t="s">
         <v>1174</v>
       </c>
-      <c r="F423" t="s">
+      <c r="G423" t="s">
         <v>1175</v>
       </c>
-      <c r="G423" t="s">
-        <v>1176</v>
-      </c>
       <c r="H423" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B424" s="2">
         <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B425" s="2">
         <v>23</v>
       </c>
       <c r="C425" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -11017,19 +11022,19 @@
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E426" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F426" t="s">
         <v>1174</v>
       </c>
-      <c r="F426" t="s">
+      <c r="G426" t="s">
         <v>1175</v>
       </c>
-      <c r="G426" t="s">
-        <v>1176</v>
-      </c>
       <c r="H426" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -11040,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="C427" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -11059,10 +11064,10 @@
         <v>1</v>
       </c>
       <c r="C429" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I429" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -11073,10 +11078,10 @@
         <v>1</v>
       </c>
       <c r="C430" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I430" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -11087,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="C431" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -11098,10 +11103,10 @@
         <v>2</v>
       </c>
       <c r="C432" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I432" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -11112,7 +11117,7 @@
         <v>2</v>
       </c>
       <c r="C433" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -11123,10 +11128,10 @@
         <v>6</v>
       </c>
       <c r="C434" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I434" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -11140,16 +11145,16 @@
         <v>169</v>
       </c>
       <c r="E435" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F435" t="s">
         <v>1178</v>
       </c>
-      <c r="F435" t="s">
+      <c r="G435" t="s">
         <v>1179</v>
       </c>
-      <c r="G435" t="s">
+      <c r="H435" t="s">
         <v>1180</v>
-      </c>
-      <c r="H435" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -11163,16 +11168,16 @@
         <v>169</v>
       </c>
       <c r="E436" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F436" s="19" t="s">
         <v>1178</v>
       </c>
-      <c r="F436" s="19" t="s">
+      <c r="G436" s="19" t="s">
         <v>1179</v>
       </c>
-      <c r="G436" s="19" t="s">
+      <c r="H436" s="19" t="s">
         <v>1180</v>
-      </c>
-      <c r="H436" s="19" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -11199,16 +11204,16 @@
         <v>12</v>
       </c>
       <c r="E439" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F439" s="19" t="s">
         <v>1178</v>
       </c>
-      <c r="F439" s="19" t="s">
+      <c r="G439" s="19" t="s">
         <v>1179</v>
       </c>
-      <c r="G439" s="19" t="s">
+      <c r="H439" s="19" t="s">
         <v>1180</v>
-      </c>
-      <c r="H439" s="19" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -11219,16 +11224,16 @@
         <v>24</v>
       </c>
       <c r="E440" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F440" s="19" t="s">
         <v>1178</v>
       </c>
-      <c r="F440" s="19" t="s">
+      <c r="G440" s="19" t="s">
         <v>1179</v>
       </c>
-      <c r="G440" s="19" t="s">
+      <c r="H440" s="19" t="s">
         <v>1180</v>
-      </c>
-      <c r="H440" s="19" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -11239,16 +11244,16 @@
         <v>12</v>
       </c>
       <c r="E441" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F441" s="19" t="s">
         <v>1178</v>
       </c>
-      <c r="F441" s="19" t="s">
+      <c r="G441" s="19" t="s">
         <v>1179</v>
       </c>
-      <c r="G441" s="19" t="s">
+      <c r="H441" s="19" t="s">
         <v>1180</v>
-      </c>
-      <c r="H441" s="19" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -11275,7 +11280,7 @@
         <v>35</v>
       </c>
       <c r="C444" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -11302,7 +11307,7 @@
         <v>7</v>
       </c>
       <c r="C447" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -11313,7 +11318,7 @@
         <v>2</v>
       </c>
       <c r="C448" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -11332,7 +11337,7 @@
         <v>2</v>
       </c>
       <c r="C450" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -11343,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="C451" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -11357,16 +11362,16 @@
         <v>225</v>
       </c>
       <c r="E452" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F452" t="s">
         <v>1182</v>
       </c>
-      <c r="F452" t="s">
+      <c r="G452" t="s">
         <v>1183</v>
       </c>
-      <c r="G452" t="s">
+      <c r="H452" t="s">
         <v>1184</v>
-      </c>
-      <c r="H452" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -11388,16 +11393,16 @@
         <v>12</v>
       </c>
       <c r="E454" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F454" t="s">
         <v>1186</v>
       </c>
-      <c r="F454" t="s">
+      <c r="G454" t="s">
         <v>1187</v>
       </c>
-      <c r="G454" t="s">
-        <v>1188</v>
-      </c>
       <c r="H454" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -11408,16 +11413,16 @@
         <v>3</v>
       </c>
       <c r="E455" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F455" t="s">
         <v>1189</v>
       </c>
-      <c r="F455" t="s">
+      <c r="G455" t="s">
         <v>1190</v>
       </c>
-      <c r="G455" t="s">
+      <c r="H455" t="s">
         <v>1191</v>
-      </c>
-      <c r="H455" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -11428,16 +11433,16 @@
         <v>2</v>
       </c>
       <c r="E456" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F456" t="s">
         <v>1117</v>
       </c>
-      <c r="F456" t="s">
+      <c r="G456" t="s">
         <v>1118</v>
       </c>
-      <c r="G456" t="s">
+      <c r="H456" t="s">
         <v>1119</v>
-      </c>
-      <c r="H456" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -11448,7 +11453,7 @@
         <v>3</v>
       </c>
       <c r="C457" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -11459,10 +11464,10 @@
         <v>1</v>
       </c>
       <c r="C458" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I458" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -11473,14 +11478,14 @@
         <v>3</v>
       </c>
       <c r="C459" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D459" s="19"/>
       <c r="E459" s="19"/>
       <c r="F459" s="19"/>
       <c r="H459" s="19"/>
       <c r="I459" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -11491,14 +11496,14 @@
         <v>3</v>
       </c>
       <c r="C460" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D460" s="19"/>
       <c r="E460" s="19"/>
       <c r="F460" s="19"/>
       <c r="H460" s="19"/>
       <c r="I460" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -11509,14 +11514,14 @@
         <v>3</v>
       </c>
       <c r="C461" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D461" s="19"/>
       <c r="E461" s="19"/>
       <c r="F461" s="19"/>
       <c r="H461" s="19"/>
       <c r="I461" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -11527,14 +11532,14 @@
         <v>2</v>
       </c>
       <c r="C462" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D462" s="19"/>
       <c r="E462" s="19"/>
       <c r="F462" s="19"/>
       <c r="H462" s="19"/>
       <c r="I462" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -11545,14 +11550,14 @@
         <v>1</v>
       </c>
       <c r="C463" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D463" s="19"/>
       <c r="E463" s="19"/>
       <c r="F463" s="19"/>
       <c r="H463" s="19"/>
       <c r="I463" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -11563,14 +11568,14 @@
         <v>8</v>
       </c>
       <c r="C464" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D464" s="19"/>
       <c r="E464" s="19"/>
       <c r="F464" s="19"/>
       <c r="H464" s="19"/>
       <c r="I464" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -11581,14 +11586,14 @@
         <v>3</v>
       </c>
       <c r="C465" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D465" s="19"/>
       <c r="E465" s="19"/>
       <c r="F465" s="19"/>
       <c r="H465" s="19"/>
       <c r="I465" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -11599,14 +11604,14 @@
         <v>5</v>
       </c>
       <c r="C466" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D466" s="19"/>
       <c r="E466" s="19"/>
       <c r="F466" s="19"/>
       <c r="H466" s="19"/>
       <c r="I466" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -11617,14 +11622,14 @@
         <v>1</v>
       </c>
       <c r="C467" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D467" s="19"/>
       <c r="E467" s="19"/>
       <c r="F467" s="19"/>
       <c r="H467" s="19"/>
       <c r="I467" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -11635,14 +11640,14 @@
         <v>1</v>
       </c>
       <c r="C468" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D468" s="19"/>
       <c r="E468" s="19"/>
       <c r="F468" s="19"/>
       <c r="H468" s="19"/>
       <c r="I468" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -11653,14 +11658,14 @@
         <v>1</v>
       </c>
       <c r="C469" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D469" s="19"/>
       <c r="E469" s="19"/>
       <c r="F469" s="19"/>
       <c r="H469" s="19"/>
       <c r="I469" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -11671,14 +11676,14 @@
         <v>17</v>
       </c>
       <c r="C470" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D470" s="19"/>
       <c r="E470" s="19"/>
       <c r="F470" s="19"/>
       <c r="H470" s="19"/>
       <c r="I470" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -11689,14 +11694,14 @@
         <v>3</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D471" s="19"/>
       <c r="E471" s="19"/>
       <c r="F471" s="19"/>
       <c r="H471" s="19"/>
       <c r="I471" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -11707,10 +11712,10 @@
         <v>5</v>
       </c>
       <c r="C472" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I472" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -11721,7 +11726,7 @@
         <v>137</v>
       </c>
       <c r="C473" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -11740,14 +11745,14 @@
         <v>5</v>
       </c>
       <c r="C475" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D475" s="19"/>
       <c r="E475" s="19"/>
       <c r="F475" s="19"/>
       <c r="H475" s="19"/>
       <c r="I475" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -11758,10 +11763,10 @@
         <v>2</v>
       </c>
       <c r="C476" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I476" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -11772,10 +11777,10 @@
         <v>2</v>
       </c>
       <c r="C477" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I477" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -11786,10 +11791,10 @@
         <v>4</v>
       </c>
       <c r="C478" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I478" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -11800,10 +11805,10 @@
         <v>2</v>
       </c>
       <c r="C479" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I479" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -11814,10 +11819,10 @@
         <v>1</v>
       </c>
       <c r="C480" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I480" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -11828,10 +11833,10 @@
         <v>5</v>
       </c>
       <c r="C481" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I481" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -11842,10 +11847,10 @@
         <v>4</v>
       </c>
       <c r="C482" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I482" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -11856,10 +11861,10 @@
         <v>2</v>
       </c>
       <c r="C483" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I483" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -11870,10 +11875,10 @@
         <v>1</v>
       </c>
       <c r="C484" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I484" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -11884,10 +11889,10 @@
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I485" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -11898,10 +11903,10 @@
         <v>2</v>
       </c>
       <c r="C486" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I486" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -11912,10 +11917,10 @@
         <v>6</v>
       </c>
       <c r="C487" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I487" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -11926,10 +11931,10 @@
         <v>2</v>
       </c>
       <c r="C488" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I488" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -11940,10 +11945,10 @@
         <v>9</v>
       </c>
       <c r="C489" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I489" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -11954,10 +11959,10 @@
         <v>2</v>
       </c>
       <c r="C490" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I490" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -11968,10 +11973,10 @@
         <v>2</v>
       </c>
       <c r="C491" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I491" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -11982,10 +11987,10 @@
         <v>1</v>
       </c>
       <c r="C492" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I492" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -11996,10 +12001,10 @@
         <v>1</v>
       </c>
       <c r="C493" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I493" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -12010,10 +12015,10 @@
         <v>2</v>
       </c>
       <c r="C494" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I494" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -12024,10 +12029,10 @@
         <v>1</v>
       </c>
       <c r="C495" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I495" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -12038,10 +12043,10 @@
         <v>1</v>
       </c>
       <c r="C496" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I496" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -12052,10 +12057,10 @@
         <v>1</v>
       </c>
       <c r="C497" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I497" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -12066,10 +12071,10 @@
         <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I498" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -12080,10 +12085,10 @@
         <v>5</v>
       </c>
       <c r="C499" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I499" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -12094,10 +12099,10 @@
         <v>5</v>
       </c>
       <c r="C500" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I500" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -12108,10 +12113,10 @@
         <v>1</v>
       </c>
       <c r="C501" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I501" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -12122,10 +12127,10 @@
         <v>1</v>
       </c>
       <c r="C502" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I502" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -12136,10 +12141,10 @@
         <v>1</v>
       </c>
       <c r="C503" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I503" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -12153,16 +12158,16 @@
         <v>457</v>
       </c>
       <c r="E504" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F504" t="s">
         <v>1194</v>
       </c>
-      <c r="F504" t="s">
+      <c r="G504" t="s">
         <v>1195</v>
       </c>
-      <c r="G504" t="s">
+      <c r="H504" t="s">
         <v>1196</v>
-      </c>
-      <c r="H504" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -12173,10 +12178,10 @@
         <v>1</v>
       </c>
       <c r="C505" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I505" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
@@ -12195,10 +12200,10 @@
         <v>29</v>
       </c>
       <c r="C507" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I507" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -12209,22 +12214,22 @@
         <v>1</v>
       </c>
       <c r="C508" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E508" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F508" t="s">
         <v>1198</v>
       </c>
-      <c r="F508" t="s">
+      <c r="G508" t="s">
         <v>1199</v>
       </c>
-      <c r="G508" t="s">
+      <c r="H508" t="s">
         <v>1200</v>
       </c>
-      <c r="H508" t="s">
-        <v>1201</v>
-      </c>
       <c r="I508" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -12235,22 +12240,22 @@
         <v>1</v>
       </c>
       <c r="C509" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E509" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F509" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="F509" s="19" t="s">
+      <c r="G509" s="19" t="s">
         <v>1199</v>
       </c>
-      <c r="G509" s="19" t="s">
+      <c r="H509" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="H509" s="19" t="s">
-        <v>1201</v>
-      </c>
       <c r="I509" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
@@ -12261,22 +12266,22 @@
         <v>1</v>
       </c>
       <c r="C510" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E510" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F510" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="F510" s="19" t="s">
+      <c r="G510" s="19" t="s">
         <v>1199</v>
       </c>
-      <c r="G510" s="19" t="s">
+      <c r="H510" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="H510" s="19" t="s">
-        <v>1201</v>
-      </c>
       <c r="I510" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -12287,22 +12292,22 @@
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E511" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F511" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="F511" s="19" t="s">
+      <c r="G511" s="19" t="s">
         <v>1199</v>
       </c>
-      <c r="G511" s="19" t="s">
+      <c r="H511" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="H511" s="19" t="s">
-        <v>1201</v>
-      </c>
       <c r="I511" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -12313,19 +12318,19 @@
         <v>1</v>
       </c>
       <c r="C512" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E512" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F512" t="s">
         <v>1202</v>
       </c>
-      <c r="F512" t="s">
+      <c r="G512" t="s">
         <v>1203</v>
       </c>
-      <c r="G512" t="s">
+      <c r="H512" t="s">
         <v>1204</v>
-      </c>
-      <c r="H512" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
@@ -12339,16 +12344,16 @@
         <v>468</v>
       </c>
       <c r="E513" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F513" t="s">
         <v>1206</v>
       </c>
-      <c r="F513" t="s">
+      <c r="G513" t="s">
         <v>1207</v>
       </c>
-      <c r="G513" t="s">
+      <c r="H513" t="s">
         <v>1208</v>
-      </c>
-      <c r="H513" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -12362,21 +12367,21 @@
         <v>305</v>
       </c>
       <c r="E514" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F514" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G514" t="s">
         <v>1210</v>
       </c>
-      <c r="G514" t="s">
-        <v>1211</v>
-      </c>
       <c r="H514" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B515" s="2">
         <v>18</v>
@@ -12385,16 +12390,16 @@
         <v>396</v>
       </c>
       <c r="E515" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F515" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G515" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H515" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -12408,16 +12413,16 @@
         <v>448</v>
       </c>
       <c r="E516" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F516" t="s">
         <v>1216</v>
       </c>
-      <c r="F516" t="s">
+      <c r="G516" t="s">
         <v>1217</v>
       </c>
-      <c r="G516" t="s">
-        <v>1218</v>
-      </c>
       <c r="H516" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -12431,68 +12436,68 @@
         <v>396</v>
       </c>
       <c r="E517" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F517" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G517" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H517" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B518" s="2">
         <v>4</v>
       </c>
       <c r="C518" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D518" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E518" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F518" t="s">
         <v>1223</v>
       </c>
-      <c r="F518" t="s">
+      <c r="G518" t="s">
         <v>1224</v>
       </c>
-      <c r="G518" t="s">
+      <c r="H518" t="s">
         <v>1225</v>
       </c>
-      <c r="H518" t="s">
+      <c r="I518" t="s">
         <v>1226</v>
-      </c>
-      <c r="I518" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B519" s="2">
         <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E519" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F519" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G519" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H519" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -12503,62 +12508,62 @@
         <v>5</v>
       </c>
       <c r="E520" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F520" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G520" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H520" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B521" s="2">
         <v>7</v>
       </c>
       <c r="C521" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E521" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F521" t="s">
         <v>1229</v>
       </c>
-      <c r="F521" t="s">
+      <c r="G521" t="s">
         <v>1230</v>
       </c>
-      <c r="G521" t="s">
+      <c r="H521" t="s">
         <v>1231</v>
-      </c>
-      <c r="H521" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B522" s="2">
         <v>5</v>
       </c>
       <c r="C522" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E522" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F522" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G522" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H522" t="s">
         <v>1233</v>
-      </c>
-      <c r="H522" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -12572,16 +12577,16 @@
         <v>434</v>
       </c>
       <c r="E523" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F523" t="s">
         <v>1235</v>
       </c>
-      <c r="F523" t="s">
+      <c r="G523" t="s">
         <v>1236</v>
       </c>
-      <c r="G523" t="s">
+      <c r="H523" t="s">
         <v>1237</v>
-      </c>
-      <c r="H523" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
@@ -12595,16 +12600,16 @@
         <v>434</v>
       </c>
       <c r="E524" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F524" t="s">
         <v>1021</v>
       </c>
-      <c r="F524" t="s">
+      <c r="G524" t="s">
         <v>1022</v>
       </c>
-      <c r="G524" t="s">
+      <c r="H524" t="s">
         <v>1023</v>
-      </c>
-      <c r="H524" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -12618,16 +12623,16 @@
         <v>66</v>
       </c>
       <c r="E525" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F525" t="s">
         <v>1029</v>
       </c>
-      <c r="F525" t="s">
+      <c r="G525" t="s">
         <v>1030</v>
       </c>
-      <c r="G525" t="s">
+      <c r="H525" t="s">
         <v>1031</v>
-      </c>
-      <c r="H525" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -12641,16 +12646,16 @@
         <v>66</v>
       </c>
       <c r="E526" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F526" s="19" t="s">
         <v>1029</v>
       </c>
-      <c r="F526" s="19" t="s">
+      <c r="G526" s="19" t="s">
         <v>1030</v>
       </c>
-      <c r="G526" s="19" t="s">
+      <c r="H526" s="19" t="s">
         <v>1031</v>
-      </c>
-      <c r="H526" s="19" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
@@ -12664,21 +12669,21 @@
         <v>79</v>
       </c>
       <c r="E527" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F527" t="s">
         <v>1021</v>
       </c>
-      <c r="F527" t="s">
+      <c r="G527" t="s">
         <v>1022</v>
       </c>
-      <c r="G527" t="s">
+      <c r="H527" t="s">
         <v>1023</v>
-      </c>
-      <c r="H527" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B528" s="2">
         <v>12</v>
@@ -12686,7 +12691,7 @@
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B529" s="2">
         <v>172</v>
@@ -12703,36 +12708,36 @@
         <v>206</v>
       </c>
       <c r="E530" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F530" t="s">
         <v>1239</v>
       </c>
-      <c r="F530" t="s">
+      <c r="G530" t="s">
         <v>1240</v>
       </c>
-      <c r="G530" t="s">
+      <c r="H530" t="s">
         <v>1241</v>
-      </c>
-      <c r="H530" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B531" s="2">
         <v>2</v>
       </c>
       <c r="E531" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F531" t="s">
         <v>1021</v>
       </c>
-      <c r="F531" t="s">
+      <c r="G531" t="s">
         <v>1022</v>
       </c>
-      <c r="G531" t="s">
+      <c r="H531" t="s">
         <v>1023</v>
-      </c>
-      <c r="H531" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -12746,39 +12751,39 @@
         <v>704</v>
       </c>
       <c r="E532" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F532" t="s">
         <v>1243</v>
       </c>
-      <c r="F532" t="s">
+      <c r="G532" t="s">
         <v>1244</v>
       </c>
-      <c r="G532" t="s">
+      <c r="H532" t="s">
         <v>1245</v>
-      </c>
-      <c r="H532" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B533" s="2">
         <v>2</v>
       </c>
       <c r="C533" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E533" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F533" t="s">
         <v>1021</v>
       </c>
-      <c r="F533" t="s">
+      <c r="G533" t="s">
         <v>1022</v>
       </c>
-      <c r="G533" t="s">
+      <c r="H533" t="s">
         <v>1023</v>
-      </c>
-      <c r="H533" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -12792,154 +12797,154 @@
         <v>738</v>
       </c>
       <c r="E534" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F534" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F534" s="19" t="s">
+      <c r="G534" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G534" s="19" t="s">
+      <c r="H534" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H534" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B535" s="2">
         <v>1</v>
       </c>
       <c r="C535" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E535" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F535" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F535" s="19" t="s">
+      <c r="G535" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G535" s="19" t="s">
+      <c r="H535" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H535" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B536" s="2">
         <v>1</v>
       </c>
       <c r="C536" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E536" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F536" t="s">
         <v>1247</v>
       </c>
-      <c r="F536" t="s">
+      <c r="G536" t="s">
         <v>1248</v>
       </c>
-      <c r="G536" t="s">
+      <c r="H536" t="s">
         <v>1249</v>
-      </c>
-      <c r="H536" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B537" s="2">
         <v>2</v>
       </c>
       <c r="D537" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E537" s="19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F537" s="19" t="s">
         <v>1247</v>
       </c>
-      <c r="F537" s="19" t="s">
+      <c r="G537" s="19" t="s">
         <v>1248</v>
       </c>
-      <c r="G537" s="19" t="s">
+      <c r="H537" s="19" t="s">
         <v>1249</v>
-      </c>
-      <c r="H537" s="19" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B538" s="2">
         <v>2</v>
       </c>
       <c r="C538" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E538" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F538" t="s">
         <v>1252</v>
       </c>
-      <c r="F538" t="s">
+      <c r="G538" t="s">
         <v>1253</v>
       </c>
-      <c r="G538" t="s">
+      <c r="H538" t="s">
         <v>1254</v>
       </c>
-      <c r="H538" t="s">
+      <c r="I538" s="24" t="s">
         <v>1255</v>
-      </c>
-      <c r="I538" s="24" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B539" s="2">
         <v>1</v>
       </c>
       <c r="E539" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F539" t="s">
         <v>1021</v>
       </c>
-      <c r="F539" t="s">
+      <c r="G539" t="s">
         <v>1022</v>
       </c>
-      <c r="G539" t="s">
+      <c r="H539" t="s">
         <v>1023</v>
-      </c>
-      <c r="H539" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B540" s="2">
         <v>1</v>
       </c>
       <c r="C540" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E540" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F540" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F540" s="19" t="s">
+      <c r="G540" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G540" s="19" t="s">
+      <c r="H540" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H540" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
@@ -12953,16 +12958,16 @@
         <v>442</v>
       </c>
       <c r="E541" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F541" t="s">
         <v>1257</v>
       </c>
-      <c r="F541" t="s">
+      <c r="G541" t="s">
         <v>1258</v>
       </c>
-      <c r="G541" t="s">
+      <c r="H541" t="s">
         <v>1259</v>
-      </c>
-      <c r="H541" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -12976,16 +12981,16 @@
         <v>272</v>
       </c>
       <c r="E542" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F542" t="s">
         <v>1021</v>
       </c>
-      <c r="F542" t="s">
+      <c r="G542" t="s">
         <v>1022</v>
       </c>
-      <c r="G542" t="s">
+      <c r="H542" t="s">
         <v>1023</v>
-      </c>
-      <c r="H542" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
@@ -12999,16 +13004,16 @@
         <v>59</v>
       </c>
       <c r="E543" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F543" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="F543" s="19" t="s">
+      <c r="G543" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="G543" s="19" t="s">
+      <c r="H543" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="H543" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
@@ -13019,13 +13024,13 @@
         <v>7</v>
       </c>
       <c r="E544" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F544" t="s">
         <v>1261</v>
       </c>
-      <c r="F544" t="s">
+      <c r="H544" t="s">
         <v>1262</v>
-      </c>
-      <c r="H544" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -13038,7 +13043,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B546" s="2">
         <v>1</v>
@@ -13046,7 +13051,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B547" s="2">
         <v>1</v>
@@ -13174,7 +13179,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B563" s="2">
         <v>1</v>
@@ -14214,7 +14219,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B693" s="2">
         <v>4</v>
@@ -14446,7 +14451,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B722" s="2">
         <v>13</v>
@@ -14454,7 +14459,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B723" s="2">
         <v>5</v>
@@ -14494,7 +14499,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B728" s="2">
         <v>1</v>
@@ -14526,7 +14531,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B732" s="2">
         <v>1</v>
@@ -14614,7 +14619,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B743" s="2">
         <v>1</v>
@@ -14702,7 +14707,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B754" s="2">
         <v>1</v>
@@ -14710,7 +14715,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B755" s="2">
         <v>5</v>
@@ -14798,7 +14803,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B766" s="2">
         <v>184</v>
@@ -14806,7 +14811,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B767" s="2">
         <v>37</v>
@@ -14814,7 +14819,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B768" s="2">
         <v>18</v>
@@ -14822,15 +14827,15 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B769" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>852</v>
+        <v>1265</v>
       </c>
       <c r="B770" s="2">
         <v>1</v>
@@ -14838,7 +14843,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B771" s="2">
         <v>1</v>
@@ -14846,7 +14851,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B772" s="2">
         <v>1</v>
@@ -14894,7 +14899,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B778" s="2">
         <v>53</v>
@@ -14910,7 +14915,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B780" s="2">
         <v>2</v>
@@ -15566,7 +15571,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B862" s="2">
         <v>1</v>
@@ -15838,7 +15843,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B896" s="2">
         <v>1</v>
@@ -15846,7 +15851,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B897" s="2">
         <v>3</v>
@@ -15886,7 +15891,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B902" s="2">
         <v>1</v>
@@ -16022,7 +16027,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B919" s="2">
         <v>94</v>
@@ -16142,7 +16147,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B934" s="2">
         <v>1</v>
@@ -16174,7 +16179,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B938" s="2">
         <v>30</v>
@@ -16182,7 +16187,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B939" s="2">
         <v>10</v>
@@ -16190,7 +16195,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B940" s="2">
         <v>58</v>
@@ -16198,7 +16203,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B941" s="2">
         <v>34</v>
@@ -16238,7 +16243,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B946" s="2">
         <v>18</v>
